--- a/tradept/Excel/Localization/english/D道具列表_Items_CardGems_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/D道具列表_Items_CardGems_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52521E9D-E5E3-4594-95AE-1DF13FFA7478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352BBD9F-08E3-434B-956B-6761C470BE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="498">
   <si>
     <t>道具ID_ItemID</t>
   </si>
@@ -54,144 +54,72 @@
     <t>道具描述_ItemDesc</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>GEM_赠铸石</t>
   </si>
   <si>
     <t>赠铸石</t>
   </si>
   <si>
-    <t>Piedra de inserción</t>
-  </si>
-  <si>
-    <t>可以给卡牌增加一个宝石孔,颜色随机。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Agrega una inserción de joya de un color aleatorio a una tarjeta de tropa.</t>
-  </si>
-  <si>
     <t>GEM_幻色石</t>
   </si>
   <si>
     <t>幻色石</t>
   </si>
   <si>
-    <t>Revestimiento de inserción: prisma</t>
-  </si>
-  <si>
-    <t>可以随机改变兵卡上所有宝石孔的颜色。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Cambia todas las insatas de joya en una tarjeta de tropa a los colores aleatorios.</t>
-  </si>
-  <si>
     <t>GEM_定色石红</t>
   </si>
   <si>
     <t>定色石·红</t>
   </si>
   <si>
-    <t>Rewasher InseT: Rose</t>
-  </si>
-  <si>
-    <t>将卡牌上所有宝石孔的颜色改变为红色。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Cambia todas las insatas de joya en una tarjeta de tropa para que se levantó.</t>
-  </si>
-  <si>
     <t>GEM_定色石黄</t>
   </si>
   <si>
     <t>定色石·黄</t>
   </si>
   <si>
-    <t>Recolección de insers: ámbar</t>
-  </si>
-  <si>
-    <t>将卡牌上所有宝石孔的颜色改变为黄色。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Cambia todas las insatas de joya en una tarjeta de tropa a ámbar.</t>
-  </si>
-  <si>
     <t>GEM_定色石蓝</t>
   </si>
   <si>
     <t>定色石·蓝</t>
   </si>
   <si>
-    <t>Piedra de inserción: Azure</t>
-  </si>
-  <si>
-    <t>将卡牌上所有宝石孔的颜色改变为蓝色。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Cambia todas las insatas de joya en una tarjeta de tropa a Azure.</t>
-  </si>
-  <si>
     <t>GEM_锋利</t>
   </si>
   <si>
     <t>锋利</t>
   </si>
   <si>
-    <t>Afilado</t>
-  </si>
-  <si>
-    <t>【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>(Abra el menú de escuadrón para usar)</t>
-  </si>
-  <si>
     <t>GEM_锯齿</t>
   </si>
   <si>
     <t>锯齿</t>
   </si>
   <si>
-    <t>Dentado</t>
-  </si>
-  <si>
     <t>GEM_睿智</t>
   </si>
   <si>
     <t>睿智</t>
   </si>
   <si>
-    <t>Sabio</t>
-  </si>
-  <si>
     <t>GEM_锐眼</t>
   </si>
   <si>
     <t>锐眼</t>
   </si>
   <si>
-    <t>Entusiasta</t>
-  </si>
-  <si>
     <t>GEM_识破</t>
   </si>
   <si>
     <t>识破</t>
   </si>
   <si>
-    <t>Previsión</t>
-  </si>
-  <si>
     <t>GEM_电力</t>
   </si>
   <si>
     <t>电力</t>
   </si>
   <si>
-    <t>Eléctrico</t>
-  </si>
-  <si>
     <t>GEM_狂战</t>
   </si>
   <si>
@@ -207,27 +135,18 @@
     <t>先锋</t>
   </si>
   <si>
-    <t>Pionero</t>
-  </si>
-  <si>
     <t>GEM_屠戮</t>
   </si>
   <si>
     <t>压制</t>
   </si>
   <si>
-    <t>Carnicería</t>
-  </si>
-  <si>
     <t>GEM_复仇</t>
   </si>
   <si>
     <t>反击</t>
   </si>
   <si>
-    <t>Vengativo</t>
-  </si>
-  <si>
     <t>GEM_迷之力量</t>
   </si>
   <si>
@@ -243,109 +162,69 @@
     <t>炽热</t>
   </si>
   <si>
-    <t>Día abrasador</t>
-  </si>
-  <si>
     <t>GEM_冰霜</t>
   </si>
   <si>
     <t>冰霜</t>
   </si>
   <si>
-    <t>escarcha</t>
-  </si>
-  <si>
     <t>GEM_刺杀</t>
   </si>
   <si>
     <t>痛击</t>
   </si>
   <si>
-    <t>Asesino</t>
-  </si>
-  <si>
     <t>GEM_破甲</t>
   </si>
   <si>
     <t>破甲</t>
   </si>
   <si>
-    <t>atravesar</t>
-  </si>
-  <si>
     <t>GEM_破坏者</t>
   </si>
   <si>
     <t>破坏者</t>
   </si>
   <si>
-    <t>Ravagro</t>
-  </si>
-  <si>
     <t>GEM_破法者</t>
   </si>
   <si>
     <t>破法者</t>
   </si>
   <si>
-    <t>Transgresor</t>
-  </si>
-  <si>
     <t>GEM_魔法武器</t>
   </si>
   <si>
     <t>魔法武器</t>
   </si>
   <si>
-    <t>Arma mágica</t>
-  </si>
-  <si>
     <t>[%tagcard:attack_type%][&lt;&gt;]4&amp;[%tagcard:attack_type%][&lt;&gt;]900&amp;[%tagcard:attack_type%][&lt;&gt;]5#非投射、巫师、器械攻击类型的单位</t>
   </si>
   <si>
-    <t>获得相当于自身10%物理攻击力的巫术攻击力
-每5次攻击附带一次额外魔法攻击,造成100%巫术攻击力的巫术伤害。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Aumentar el ataque mágico propio en un 10% del ataque físico. Cada quinto ataque trata un ataque de bonificación mágico, vale el valor del 100% mágico en el daño mágico (abra el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_苍白之牙</t>
   </si>
   <si>
     <t>苍白之牙</t>
   </si>
   <si>
-    <t>Colmillo de marfil</t>
-  </si>
-  <si>
     <t>GEM_深渊巨兽</t>
   </si>
   <si>
     <t>深渊巨兽</t>
   </si>
   <si>
-    <t>Bestia abisal</t>
-  </si>
-  <si>
     <t>GEM_暗潮</t>
   </si>
   <si>
     <t>暗潮</t>
   </si>
   <si>
-    <t>Tendencia subyacente</t>
-  </si>
-  <si>
     <t>GEM_渴血</t>
   </si>
   <si>
     <t>利刃</t>
   </si>
   <si>
-    <t>Sanguinario</t>
-  </si>
-  <si>
     <t>GEM_充沛</t>
   </si>
   <si>
@@ -361,27 +240,15 @@
     <t>古神附体</t>
   </si>
   <si>
-    <t>Dioses poseídos</t>
-  </si>
-  <si>
     <t>GEM_全知巫术</t>
   </si>
   <si>
     <t>全知·巫术</t>
   </si>
   <si>
-    <t>Omnisciente: Arcana</t>
-  </si>
-  <si>
     <t>[%tagcard:attack_type%][&lt;&gt;]900#攻击类型非巫师的单位</t>
   </si>
   <si>
-    <t>提升对应阶级×10×等级的巫术攻击。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Aumente el ataque mágico por (nivel x 10 x nivel) (abra el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_全觉物理</t>
   </si>
   <si>
@@ -391,33 +258,18 @@
     <t>Iluminado: Físico</t>
   </si>
   <si>
-    <t>[%tagcard:attack_type%][=]900#攻击类型为巫师的单位</t>
-  </si>
-  <si>
-    <t>提升对应阶级×10×等级的物理攻击。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Aumente el ataque físico por (nivel x 10 x nivel) (abra el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_巫术充能</t>
   </si>
   <si>
     <t>巫术充能</t>
   </si>
   <si>
-    <t>Cargo oculto</t>
-  </si>
-  <si>
     <t>GEM_附魔箭矢</t>
   </si>
   <si>
     <t>附魔箭矢</t>
   </si>
   <si>
-    <t>Flecha encantada</t>
-  </si>
-  <si>
     <t>[%tagcard:attack_type%][=]4#攻击类型为投射的单位</t>
   </si>
   <si>
@@ -427,27 +279,18 @@
     <t>淬毒箭矢</t>
   </si>
   <si>
-    <t>Flecha venenosa</t>
-  </si>
-  <si>
     <t>GEM_彗星投射</t>
   </si>
   <si>
     <t>彗星投射</t>
   </si>
   <si>
-    <t>Conjuro de cometa</t>
-  </si>
-  <si>
     <t>GEM_凤凰战士</t>
   </si>
   <si>
     <t>凤凰战士</t>
   </si>
   <si>
-    <t>Phoenix Warrior</t>
-  </si>
-  <si>
     <t>[$tagcard:tier$][&lt;&gt;]6#兵种阶级非T6</t>
   </si>
   <si>
@@ -457,24 +300,12 @@
     <t>不倦</t>
   </si>
   <si>
-    <t>Inexorable</t>
-  </si>
-  <si>
     <t>GEM_黑火侵蚀</t>
   </si>
   <si>
     <t>黑火侵蚀</t>
   </si>
   <si>
-    <t>Llama de obsidiana</t>
-  </si>
-  <si>
-    <t>进入战斗后,每秒损失0.5%生命值。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Después de ingresar a la batalla, perder 0.5% de salud por segundo.</t>
-  </si>
-  <si>
     <t>GEM_超负荷</t>
   </si>
   <si>
@@ -490,9 +321,6 @@
     <t>魔法起源</t>
   </si>
   <si>
-    <t>Fuente de magia</t>
-  </si>
-  <si>
     <t>[$tagcard:statu=race_人类%][&gt;]0#仅限人类</t>
   </si>
   <si>
@@ -511,69 +339,42 @@
     <t>弱者之力</t>
   </si>
   <si>
-    <t>Poder de los débiles</t>
-  </si>
-  <si>
-    <t>对抗阶级高于自身的单位时,每阶额外造成35%的独立伤检攻击。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Ofrece un bono 35% de los ataques de daños independientes cuando luchan contra una unidad enemiga de un nivel superior.</t>
-  </si>
-  <si>
     <t>GEM_狂攻</t>
   </si>
   <si>
     <t>狂攻</t>
   </si>
   <si>
-    <t>Rabioso</t>
-  </si>
-  <si>
     <t>GEM_疯狂</t>
   </si>
   <si>
     <t>疯狂</t>
   </si>
   <si>
-    <t>Frenesí</t>
-  </si>
-  <si>
     <t>GEM_绝对专注</t>
   </si>
   <si>
     <t>绝对专注</t>
   </si>
   <si>
-    <t>Enfoque total</t>
-  </si>
-  <si>
     <t>GEM_流血精通</t>
   </si>
   <si>
     <t>流血精通</t>
   </si>
   <si>
-    <t>Dominio de sangrado</t>
-  </si>
-  <si>
     <t>GEM_燃烧精通</t>
   </si>
   <si>
     <t>燃烧精通</t>
   </si>
   <si>
-    <t>Maestría</t>
-  </si>
-  <si>
     <t>GEM_血刃</t>
   </si>
   <si>
     <t>血刃</t>
   </si>
   <si>
-    <t>Hoja sangrienta</t>
-  </si>
-  <si>
     <t>[%tagcard:attack_type%][&lt;&gt;]900&amp;[%tagcard:attack_type%][&lt;&gt;]5#非巫师、器械攻击类型的单位</t>
   </si>
   <si>
@@ -583,51 +384,30 @@
     <t>健壮</t>
   </si>
   <si>
-    <t>Empuje</t>
-  </si>
-  <si>
     <t>GEM_复苏</t>
   </si>
   <si>
     <t>复苏</t>
   </si>
   <si>
-    <t>Reanimar</t>
-  </si>
-  <si>
-    <t>获得相当于阶级*2+等级的每秒回复生命。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Activar un (nivel de nivel x 2 +) por segundo efecto de regen de salud.</t>
-  </si>
-  <si>
     <t>GEM_坚韧</t>
   </si>
   <si>
     <t>坚韧</t>
   </si>
   <si>
-    <t>Leal</t>
-  </si>
-  <si>
     <t>GEM_抗魔</t>
   </si>
   <si>
     <t>抗魔</t>
   </si>
   <si>
-    <t>Cáscara</t>
-  </si>
-  <si>
     <t>GEM_配盾</t>
   </si>
   <si>
     <t>配盾</t>
   </si>
   <si>
-    <t>Blindado</t>
-  </si>
-  <si>
     <t>GEM_虚无</t>
   </si>
   <si>
@@ -655,94 +435,48 @@
     <t>披甲</t>
   </si>
   <si>
-    <t>Acorazado</t>
-  </si>
-  <si>
     <t>[%tagcard:armor_type%][=]0#轻甲单位</t>
   </si>
   <si>
-    <t>护甲类型变成「中甲」【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Cambie el tipo de armadura a la armadura mediana (abra el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_轻灵</t>
   </si>
   <si>
     <t>轻灵</t>
   </si>
   <si>
-    <t>Ágil</t>
-  </si>
-  <si>
     <t>GEM_加固</t>
   </si>
   <si>
     <t>加固</t>
   </si>
   <si>
-    <t>Reforzado</t>
-  </si>
-  <si>
     <t>[%tagcard:armor_type%][=]1#中甲单位</t>
   </si>
   <si>
-    <t>护甲类型变成「重甲」【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Cambie el tipo de armadura a la armadura pesada (abra el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_减重</t>
   </si>
   <si>
     <t>减重</t>
   </si>
   <si>
-    <t>Adelgazar</t>
-  </si>
-  <si>
-    <t>护甲类型变成「轻甲」【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Cambie el tipo de armadura a la armadura de luz (abra el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_附魔盔甲</t>
   </si>
   <si>
     <t>附魔盔甲</t>
   </si>
   <si>
-    <t>Armadura encantada</t>
-  </si>
-  <si>
-    <t>物理伤害减免10%
-巫术伤害减免10%。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Aumente la reducción de los daños físicos en un 10% y la reducción de los daños mágicos en un 10% (abra el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_自动修复</t>
   </si>
   <si>
     <t>自动修复</t>
   </si>
   <si>
-    <t>Reparación automática</t>
-  </si>
-  <si>
     <t>GEM_陨铁加铸</t>
   </si>
   <si>
     <t>陨铁加铸</t>
   </si>
   <si>
-    <t>Fundición de meteoritos</t>
-  </si>
-  <si>
     <t>[%tagcard:armor_type%][=]2#重甲单位</t>
   </si>
   <si>
@@ -752,51 +486,27 @@
     <t>自适应外壳</t>
   </si>
   <si>
-    <t>Cáscara adaptativa</t>
-  </si>
-  <si>
     <t>[%tagcard:armor_type%][&lt;&gt;]2&amp;[%tagcard:armor_type%][&lt;&gt;]4&amp;[%tagcard:armor_type%][&lt;&gt;]9#非重甲、重骑兵甲、城甲单位</t>
   </si>
   <si>
-    <t>受到攻击时,获得持续5秒的50%伤害减免。(10秒冷却)【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Ganar 50% de reducción de daño durante 5 segundos cuando se atacan. El tiempo de reutilización es de 10 segundos (abra el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_皮下装甲</t>
   </si>
   <si>
     <t>皮下装甲</t>
   </si>
   <si>
-    <t>Piel escalada</t>
-  </si>
-  <si>
     <t>GEM_再生装置</t>
   </si>
   <si>
     <t>再生装置</t>
   </si>
   <si>
-    <t>Dispositivo de regeneración</t>
-  </si>
-  <si>
-    <t>释放技能后，恢复5%最大生命值。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Reparto para curar el 5% de la salud máxima.</t>
-  </si>
-  <si>
     <t>GEM_膨胀</t>
   </si>
   <si>
     <t>膨胀</t>
   </si>
   <si>
-    <t>Hinchar</t>
-  </si>
-  <si>
     <t>[$tagcard:tier$][&lt;=]4#兵种阶级&lt;=4</t>
   </si>
   <si>
@@ -806,24 +516,12 @@
     <t>巫师护甲</t>
   </si>
   <si>
-    <t>Armadura del mago</t>
-  </si>
-  <si>
-    <t>获得相当于25%巫术减伤值的物理减伤【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Aumente el daño físico propio de resistencia en un 25% de daños mágicos (abre el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_白蔷薇加护</t>
   </si>
   <si>
     <t>白蔷薇加护</t>
   </si>
   <si>
-    <t>White Rose Ward</t>
-  </si>
-  <si>
     <t>[%tagcard:attack_type%][&lt;&gt;]5#非器械攻击类型的单位</t>
   </si>
   <si>
@@ -833,45 +531,30 @@
     <t>改良重甲</t>
   </si>
   <si>
-    <t>Armadura de reequipamiento</t>
-  </si>
-  <si>
     <t>GEM_止血棉衬</t>
   </si>
   <si>
     <t>止血棉衬</t>
   </si>
   <si>
-    <t>Forro hemostático</t>
-  </si>
-  <si>
     <t>GEM_解毒药箱</t>
   </si>
   <si>
     <t>解毒药箱</t>
   </si>
   <si>
-    <t>Cajón antídoto</t>
-  </si>
-  <si>
     <t>GEM_防火背心</t>
   </si>
   <si>
     <t>防火背心</t>
   </si>
   <si>
-    <t>Chaleco impermeable</t>
-  </si>
-  <si>
     <t>GEM_纯种坐骑</t>
   </si>
   <si>
     <t>纯种坐骑</t>
   </si>
   <si>
-    <t>Montaje de pura sangre</t>
-  </si>
-  <si>
     <t>[$tagcard:statu=bf_乘骑%][&gt;]0#仅限骑乘单位</t>
   </si>
   <si>
@@ -881,18 +564,12 @@
     <t>突变</t>
   </si>
   <si>
-    <t>Mutación</t>
-  </si>
-  <si>
     <t>GEM_超能</t>
   </si>
   <si>
     <t>超能</t>
   </si>
   <si>
-    <t>Maravilloso</t>
-  </si>
-  <si>
     <t>GEM_圣剑</t>
   </si>
   <si>
@@ -905,22 +582,12 @@
     <t>[%tagcard:id%][=]新_雇佣剑士|[%tagcard:id%][=]新_雇佣铠甲剑士#仅限雇佣剑士和雇佣铠甲剑士</t>
   </si>
   <si>
-    <t>武器替换为圣剑
-技能「盾阵」替换为「圣剑斩」,向前方500码斩出一道剑气,造成相当于100%物理攻击的真实伤害。无法闪避,无法格挡,无法暴击。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Cambia el arma a Excalibur. Reemplace la formación de escudo con la rebanada de Excalibur, una nueva habilidad. Desata un haz de energía santificada de espada en una línea recta 500 codos hacia la dirección del objetivo. Trate el 100% de ataque físico en el daño verdadero a todos los enemigos golpeados por el ataque. No puede ser evadido o bloqueado (abra el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_跳斩精通</t>
   </si>
   <si>
     <t>跳斩精通</t>
   </si>
   <si>
-    <t>Jump Slash Mastery</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_雪岭大剑士|[%tagcard:id%][=]新_雪岭剑豪#仅限雪岭大剑士和雪岭剑豪单位</t>
   </si>
   <si>
@@ -930,27 +597,15 @@
     <t>狂怒</t>
   </si>
   <si>
-    <t>Chugger de sangre</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_巨人战士|[%tagcard:id%][=]新_巨灵神#仅限巨人战士和巨灵神单位</t>
   </si>
   <si>
-    <t>裂地击回复的生命提高至200%。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Aumenta la recuperación de la salud del terremoto a un 200% (abra el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_巫术记忆</t>
   </si>
   <si>
     <t>巫术记忆</t>
   </si>
   <si>
-    <t>Memoria arcana</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_雄鹰隼枪兵#仅限雄鹰隼枪兵单位</t>
   </si>
   <si>
@@ -960,108 +615,57 @@
     <t>元素点燃</t>
   </si>
   <si>
-    <t>Ignición elemental</t>
-  </si>
-  <si>
     <t>[$tagcard:tier$][&gt;=]5#兵种阶级&gt;=5</t>
   </si>
   <si>
-    <t>对处于寒霜、燃烧的敌人提高40%伤害。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Realice un 40% adicional de daño a los enemigos afectados por congelación y quemadura (abra el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_影分身</t>
   </si>
   <si>
     <t>影分身</t>
   </si>
   <si>
-    <t>Fantasma de la sombra</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_毒蝎影舞者#仅限毒蝎影舞者单位</t>
   </si>
   <si>
-    <t>技能【暗影步】替换为【影分身】，召唤出两具等级属性与影舞者相同的影分身，影分身只拥有毒系武器和轻甲克制Ⅲ被动技能，不会使用任何主动技，存在15秒。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Reemplace el paso de la sombra con la sombra fantasma, una nueva habilidad. Convoca a dos fantasmas sombras del mismo nivel que la bailarina de la sombra. Los fantasmas pueden no usar habilidades activas, pero tienen los siguientes pasivos: arma venenosa; Contador de armadura ligera. Phantoms persisten durante 15 segundos (abra el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_炼药精通</t>
   </si>
   <si>
     <t>炼药精通</t>
   </si>
   <si>
-    <t>Herbalismo Dominio</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_白蔷薇炼药学徒|[%tagcard:id%][=]新_白蔷薇炼药师#仅限白蔷薇炼药学徒和白蔷薇炼药师单位</t>
   </si>
   <si>
-    <t>提前让"白蔷薇炼药学徒"或"白蔷薇炼药师"掌握炼药精通。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Otorgue preventivamente el dominio de herborismo para los aprendices de rosa blanca y los alquimistas de rosa blanca (abre el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_治疗术精通</t>
   </si>
   <si>
     <t>治疗术精通</t>
   </si>
   <si>
-    <t>Dominio curativo</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_白蔷薇治疗学徒|[%tagcard:id%][=]新_白蔷薇治疗师#仅限白蔷薇治疗学徒和白蔷薇治疗师单位</t>
   </si>
   <si>
-    <t>提前让"白蔷薇治疗学徒"或"白蔷薇治疗师"掌握治疗术精通。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Otorgue preventivamente el dominio de curación a los acólitos de rosa blanca y los curanderos de rosas blancas (abra el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_潜行者</t>
   </si>
   <si>
     <t>潜行者</t>
   </si>
   <si>
-    <t>Acosador</t>
-  </si>
-  <si>
     <t>GEM_全体冲锋</t>
   </si>
   <si>
     <t>全体冲锋</t>
   </si>
   <si>
-    <t>Carga total</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_野马先锋骑士#仅限野马先锋骑士单位</t>
   </si>
   <si>
-    <t>使先锋旗帜额外让周围友军提升10%减伤。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>La bandera de vanguardia aumenta el daño de resistencia al aliados cercanos en un 10% adicional (abre el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_精英</t>
   </si>
   <si>
     <t>精英</t>
   </si>
   <si>
-    <t>Élite</t>
-  </si>
-  <si>
     <t>GEM_沉默者</t>
   </si>
   <si>
@@ -1077,82 +681,45 @@
     <t>自然之力</t>
   </si>
   <si>
-    <t>Poder de la naturaleza</t>
-  </si>
-  <si>
     <t>[$tagcard:statu=troop_野兽%][&gt;]0#仅限野兽单位</t>
   </si>
   <si>
-    <t>造成伤害提高(12-阶级)*2
-、受到伤害降低(12-阶级)*2【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Aumentar el daño por ((12 - nivel) x 2); Reduzca el daño tomado por ((12-Nivel) x 2) (Abra el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_野性</t>
   </si>
   <si>
     <t>野性</t>
   </si>
   <si>
-    <t>Cosa salvaje</t>
-  </si>
-  <si>
     <t>GEM_凶猛</t>
   </si>
   <si>
     <t>凶猛</t>
   </si>
   <si>
-    <t>Brutalidad</t>
-  </si>
-  <si>
     <t>GEM_行刑长</t>
   </si>
   <si>
     <t>行刑长</t>
   </si>
   <si>
-    <t>Verdugo</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_火魔行刑官#仅限火魔行刑官单位</t>
   </si>
   <si>
-    <t>炎狱裁决的处决阈值从15%提升至25%【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>El umbral de salud para la ejecución infernal se incrementa del 15% al ​​25% (abra el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_骑士扈从</t>
   </si>
   <si>
     <t>骑士扈从</t>
   </si>
   <si>
-    <t>Retinue de caballero</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_黑巫师#仅限黑巫师单位</t>
   </si>
   <si>
-    <t>强化【召唤黑暗骑士】，在开场就会释放，且黑暗骑士存在时间变为永久，黑暗骑士的生命值提升50%，体型变大25%且免疫控制。黑暗骑士被击倒后，会暂时消失30秒，随后就会满状态复活。【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Mejora Llamar a Dark Knight. Al comienzo de la batalla, use llame a Dark Knight. Aumente la duración del Caballero Dark convocado para infinitar, aumentar su salud en un 50%, aumentar su tamaño en un 25% y otorgarlo deshabilitar la inmunidad. Cuando el caballero oscuro es derribado. Desaparece durante 30 segundos y luego revive con plena salud (abra el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_群岭之首</t>
   </si>
   <si>
     <t>群岭之首</t>
   </si>
   <si>
-    <t>Guardador de acantilados</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_雪狼王|[%tagcard:id%][=]新_荒原狼王|[%tagcard:id%][=]新_魔狼王#仅限雪狼王、荒原狼王和魔狼王单位</t>
   </si>
   <si>
@@ -1162,9 +729,6 @@
     <t>古代机械</t>
   </si>
   <si>
-    <t>Antigua machina</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_战犬#仅限战犬单位</t>
   </si>
   <si>
@@ -1174,18 +738,9 @@
     <t>毒素领主</t>
   </si>
   <si>
-    <t>Señor de los venenos</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_剧毒蛇王|[%tagcard:id%][=]新_毒蝎领主|[%tagcard:id%][=]新_毒蜥之王|[%tagcard:id%][=]新_剧毒蛛母#仅限剧毒蛇王、毒蝎领主、毒蜥之王和剧毒蛛母单位</t>
   </si>
   <si>
-    <t>技能【毒源】替换为【毒素领主】，每次攻击都附带2层中毒效果,持续5秒，上限6层【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Reemplace el origen veneno con una nueva habilidad - Señor de los venenos. Los ataques básicos están imbuidos de 2 niveles de veneno. El efecto de veneno dura 5 segundos. Apila hasta 6 niveles.</t>
-  </si>
-  <si>
     <t>GEM_暴怒</t>
   </si>
   <si>
@@ -1204,9 +759,6 @@
     <t>狂风骤雨</t>
   </si>
   <si>
-    <t>Aguacero salvaje</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_疾风迅鹰|[%tagcard:id%][=]新_雷霆战隼#仅限疾风迅鹰和雷霆战隼单位</t>
   </si>
   <si>
@@ -1228,9 +780,6 @@
     <t>超绝缘体</t>
   </si>
   <si>
-    <t>Aislamiento</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_剧毒蛛母|[%tagcard:id%][=]新_吸血蛛母#仅限剧毒蛛母和吸血蛛母单位</t>
   </si>
   <si>
@@ -1240,9 +789,6 @@
     <t>先祖</t>
   </si>
   <si>
-    <t>Antepasado</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_冰霜蛙人精英|[%tagcard:id%][=]新_黄金蛙人精英|[%tagcard:id%][=]新_鱼人战士长|[%tagcard:id%][=]新_鱼人大巫师#仅限冰霜蛙人精英、黄金蛙人精英、鱼人战士长和鱼人大巫师单位</t>
   </si>
   <si>
@@ -1252,9 +798,6 @@
     <t>咒刃</t>
   </si>
   <si>
-    <t>Fallecimiento</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_诅咒女妖|[%tagcard:id%][=]新_剧毒女妖|[%tagcard:id%][=]新_恐惧女妖#仅限诅咒女妖、剧毒女妖和恐惧女妖单位</t>
   </si>
   <si>
@@ -1264,9 +807,6 @@
     <t>主宰</t>
   </si>
   <si>
-    <t>Jeque</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_沙漠战争领主#仅限沙漠战争领主单位</t>
   </si>
   <si>
@@ -1276,18 +816,9 @@
     <t>装置改良</t>
   </si>
   <si>
-    <t>Reequipamiento del dispositivo</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_赫炎动力机兵#仅限赫炎动力机兵单位</t>
   </si>
   <si>
-    <t>【动力装置】冷却下降至10秒同时不再会晕眩自己【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Dispositivo de movimiento: reducir el tiempo de reutilización a 10 segundos y ya no se sorprenda a la activación (abra el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_冷凝管</t>
   </si>
   <si>
@@ -1300,250 +831,780 @@
     <t>[%tagcard:id%][=]新_赫炎烈焰军团#仅限赫炎烈焰军团单位</t>
   </si>
   <si>
-    <t>普攻喷火变成喷冰焰，除了附带燃烧效果外，还将额外附带1层寒霜【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Las llamas de los ataques básicos se convierten en hielo, que afectan a los objetivos con la quemadura y 1 nivel de escarcha (abra el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_巨枪</t>
   </si>
   <si>
     <t>巨枪</t>
   </si>
   <si>
-    <t>Pistola de giga</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_雇佣铠甲枪兵|[%tagcard:id%][=]新_雇佣枪兵#仅限雇佣铠甲枪兵和雇佣枪兵单位</t>
   </si>
   <si>
-    <t>攻击距离提升300，每次攻击命中会小幅度击退目标【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Aumentar el rango de ataque en 300 codos. Todos los ataques ligeramente derribaron objetivos (abre el menú de escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_古代机械枪</t>
   </si>
   <si>
     <t>古代机械枪</t>
   </si>
   <si>
-    <t>Pistola antigua de machina</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_雇佣铠甲弩手|[%tagcard:id%][=]新_雇佣弩手#仅限雇佣铠甲弩手和雇佣弩手单位</t>
   </si>
   <si>
-    <t>将连弩替换为古代机械枪，每发造成100%物理伤害，同时附带小幅度击退效果</t>
-  </si>
-  <si>
-    <t>Reemplace las ballenas con las pistolas antiguas de Machina. Los ataques infligen el daño físico del 100% y los objetivos ligeramente derivados.</t>
-  </si>
-  <si>
     <t>GEM_圣银武器</t>
   </si>
   <si>
     <t>圣银武器</t>
   </si>
   <si>
-    <t>Armas mithril</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_雪山游猎者#仅限雪山游猎者单位</t>
   </si>
   <si>
-    <t>普通攻击和技能造成真实伤害【可在队伍处置界面中使用】</t>
-  </si>
-  <si>
-    <t>Los ataques básicos y las habilidades infligen un daño verdadero (abre el menú del escuadrón para usar).</t>
-  </si>
-  <si>
     <t>GEM_不死信仰</t>
   </si>
   <si>
     <t>不死信仰</t>
   </si>
   <si>
-    <t>Fe eterna</t>
-  </si>
-  <si>
     <t>[%tagcard:id%][=]新_光煜尊者#仅限光煜尊者单位</t>
   </si>
   <si>
-    <t>每秒恢复5%最大生命值
-每5次攻击附带10%当前生命值的真实伤害</t>
-  </si>
-  <si>
-    <t>Recuperar 5% de salud máxima cada segundo. Cada quinto ataque trata un 10% adicional de la salud actual en el daño verdadero.</t>
-  </si>
-  <si>
     <t>GEM_测试宝石</t>
   </si>
   <si>
     <t>测试宝石</t>
-  </si>
-  <si>
-    <t>Joya de prueba</t>
   </si>
   <si>
     <t>！！！这是用来参考的，别投放进去了！！！
 带*的字段是策划需要再描述信息中自己填写</t>
   </si>
   <si>
-    <t>Esta joya es solo para referencia.
-Las cadenas, incluido el botón * requieren descripciones a escribir.</t>
-  </si>
-  <si>
     <t>GEM_全知全觉</t>
   </si>
   <si>
     <t>全知全觉[报废]</t>
   </si>
   <si>
-    <t>Omnisciente iluminado</t>
-  </si>
-  <si>
     <t>报废</t>
   </si>
   <si>
-    <t>Volverse omnisciente e iluminado.</t>
-  </si>
-  <si>
-    <t>Unidades de todos los tipos de ataque excepto a distancia, arcana y asedio</t>
-  </si>
-  <si>
-    <t>[$tagcard:tier$][&gt;]6#Tropas de todos los niveles excepto T6</t>
-  </si>
-  <si>
-    <t>[%tagcard:attack_type%][&gt;]900&amp;[%tagcard:attack_type%][&gt;]5#Unidades de todos los tipos de ataque excepto a distancia, Arcana y Asedio</t>
-  </si>
-  <si>
-    <t>[$tagcard:tier$][=]5&amp;[$tagcard:lv$][&gt;=]20#Tropas inferiores a T5 y al menos nivel 20</t>
-  </si>
-  <si>
-    <t>[$tagcard:tier$][=]4#Tropas de T4 o inferiores</t>
-  </si>
-  <si>
-    <t>[%tagcard:attack_type%][&gt;]5#Unidades de todos los tipos de ataque excepto Asedio</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo Mercenarios Espadachines y Mercenarios Espadachines Blindados nuevos</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para Grandes Espadachines Dhib y Espadachines Dhib</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Guerreros Gigantes y Espíritus Gigantes solamente</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para los Falconeros Nasir del Nuevo Halcón</t>
-  </si>
-  <si>
-    <t>[$tagcard:tier$][&gt;=]5#Tropas de T5 o inferiores</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para bailarines de sombras Dakn</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para Aprendices de Rosa Blanca y Alquimistas de Rosa Blanca</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para Acolitos de Rosa Blanca y Sanadores de Rosa Blanca</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para los Caballeros Vanguardia Akhal</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para los Ejecutores Ifrit</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para Magos Oscuros</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Alfas de Lobo Ártico, Alfas de Lobo de Tierras Baldías y Reyes Canis solamente</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para perros de guerra #War Dogs</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Reyes Víbora, Señores Escorpión Tóxico, Reyes Lagarto Venenoso y Reinas Araña Tóxica solamente</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo Águilas Zephyr y Halcones Thunder</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para Alfas de Cheetah</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Reinas Arañas Tóxicas y Reinas Arañas Vampíricas solamente</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Sólo para Elite Frost Frogmen, Elite Gold Frogmen, Bahar Captains y Bahar Grand Wizards</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Nuevas Banshees Malditas, Banshees Venenosas y Banshees del Terror solamente</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Sólo el nuevo Señor de la Guerra del Desierto</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para las Tropas de Choque Ember de la Nueva Fuerza de Combate de Energía Ember</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para los Escuadrones de Llama Ember del Nuevo Ejército de Llamas Ardientes</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo Mercenarios Armados de Picas y Mercenarios de Picas</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo Mercenarios Armados con Ballestas y Mercenarios con Ballestas</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para cazadores alpinos</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]Solo para Radiant Abbots</t>
-  </si>
-  <si>
-    <t>[%tagcard:attack_type%][&gt;]4&amp;[%tagcard:attack_type%][&gt;]900&amp;[%tagcard:attack_type%][&gt;]5#Unidades de todos los tipos de ataque excepto a distancia, arcana y asedio</t>
-  </si>
-  <si>
-    <t>[%tagcard:attack_type%][&gt;]4&amp;[%tagcard:attack_type%][&gt;]900&amp;[%tagcard:attack_type%][&gt;]5#Unidades de todos los tipos de ataque excepto a distancia, Arcana y Asedio</t>
-  </si>
-  <si>
-    <t>[%tagcard:attack_type%][&gt;]900#Unidades de todos los tipos de ataque excepto Arcana</t>
-  </si>
-  <si>
-    <t>[%tagcard:attack_type%][=]900#Unidades de tipo Arcana</t>
-  </si>
-  <si>
-    <t>[%tagcard:attack_type%][=]4#Unidades a distancia</t>
-  </si>
-  <si>
-    <t>[$tagcard:statu=race_人类%][&gt;]0#Solo Humanos</t>
-  </si>
-  <si>
-    <t>[%tagcard:armor_type%][=]0#Unidades de armadura ligera</t>
-  </si>
-  <si>
-    <t>[%tagcard:armor_type%][=]1#Unidades de armadura media</t>
-  </si>
-  <si>
-    <t>[%tagcard:armor_type%][=]2#Unidades de armadura pesada</t>
-  </si>
-  <si>
-    <t>[%tagcard:armor_type%][&gt;]2&amp;[%tagcard:armor_type%][&gt;]4&amp;[%tagcard:armor_type%][&gt;]9#Unidades de todos los tipos de armadura excepto Armadura Pesada, Caballería Pesada y Fortificada</t>
-  </si>
-  <si>
-    <t>[$tagcard:statu=bf_乘骑%][&gt;]0#Solo Caballería</t>
-  </si>
-  <si>
-    <t>[$tagcard:statu=troop_野兽%][&gt;]0#Solo bestias</t>
-  </si>
-  <si>
-    <t>[%tagcard:id%][=]新_棕熊首领|[%tagcard:id%][=]新_雪怪首领|[%tagcard:id%][=]新_雪岭雪怪#Jefes de Osos Pardos, Yetis Dhib y Jefes de Yetis solo</t>
+    <t>Pedra Inserida</t>
+  </si>
+  <si>
+    <t>可以给卡牌增加一个宝石孔,颜色随机。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Adiciona um encaixe de joia de cor aleatória a um cartão de tropa.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Recuperador de Inserção: Prisma</t>
+  </si>
+  <si>
+    <t>可以随机改变兵卡上所有宝石孔的颜色。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Altera todos os encaixes de joias em um cartão de tropa para cores aleatórias.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Recuperador de Inserção: Rosa</t>
+  </si>
+  <si>
+    <t>将卡牌上所有宝石孔的颜色改变为红色。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Altera todos os encaixes de joias em um cartão de tropa para a cor Rosa.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Recuperador de Inserção: Âmbar</t>
+  </si>
+  <si>
+    <t>将卡牌上所有宝石孔的颜色改变为黄色。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Altera todos os encaixes de joias em um cartão de tropa para a cor Âmbar.
+Abra o menu Equipe para usar</t>
+  </si>
+  <si>
+    <t>Pedra Inserida: Azul</t>
+  </si>
+  <si>
+    <t>将卡牌上所有宝石孔的颜色改变为蓝色。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Altera todos os encaixes de joias em um cartão de tropa para a cor Azul.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Afiado</t>
+  </si>
+  <si>
+    <t>可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Serrilhado</t>
+  </si>
+  <si>
+    <t>Sábio</t>
+  </si>
+  <si>
+    <t>Previdência</t>
+  </si>
+  <si>
+    <t>Elétrico</t>
+  </si>
+  <si>
+    <t>Pioneiro</t>
+  </si>
+  <si>
+    <t>Carniceiro</t>
+  </si>
+  <si>
+    <t>Vingativo</t>
+  </si>
+  <si>
+    <t>Escaldante</t>
+  </si>
+  <si>
+    <t>Gelado</t>
+  </si>
+  <si>
+    <t>Cortante</t>
+  </si>
+  <si>
+    <t>Perfuração</t>
+  </si>
+  <si>
+    <t>Devastador</t>
+  </si>
+  <si>
+    <t>Quebramagos</t>
+  </si>
+  <si>
+    <t>Arma Mágica</t>
+  </si>
+  <si>
+    <t>[%tagcard:attack_type%][&lt;&gt;]4&amp;[%tagcard:attack_type%][&lt;&gt;]900&amp;[%tagcard:attack_type%][&lt;&gt;]5#Unidades de todos os tipos de ataque, exceto à distância, Arcana e Cerco</t>
+  </si>
+  <si>
+    <t>获得相当于自身10%物理攻击力的巫术攻击力
+每5次攻击附带一次额外魔法攻击,造成100%巫术攻击力的巫术伤害。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Aumenta o próprio Ataque Mágico em 10% do Ataque Físico.
+A cada 5º ataque, causa um bônus de ataque Mágico, equivalente a 100% do Ataque Mágico em dano Mágico.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Presas de Marfim</t>
+  </si>
+  <si>
+    <t>Besta Abissal</t>
+  </si>
+  <si>
+    <t>Correnteza Subterrânea</t>
+  </si>
+  <si>
+    <t>Sedento de Sangue</t>
+  </si>
+  <si>
+    <t>Possuído pelos Deuses</t>
+  </si>
+  <si>
+    <t>Onisciente: Arcana</t>
+  </si>
+  <si>
+    <t>[%tagcard:attack_type%][&lt;&gt;]900#Unidades de todos os tipos de ataque, exceto Arcana</t>
+  </si>
+  <si>
+    <t>提升对应阶级×3×等级的巫术攻击。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Aumenta o Ataque Mágico em (Nível x 10 x Nível).
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>[%tagcard:attack_type%][=]900#攻击类型为巫术的单位</t>
+  </si>
+  <si>
+    <t>[%tagcard:attack_type%][=]900#Unidades do tipo de ataque Arcana apenas</t>
+  </si>
+  <si>
+    <t>提升对应阶级×3×等级的物理攻击。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Aumenta o Ataque Físico em (Nível x 10 x Nível).
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Carga Oculta</t>
+  </si>
+  <si>
+    <t>Flecha Encantada</t>
+  </si>
+  <si>
+    <t>[%tagcard:attack_type%][=]4#Unidades do tipo de ataque à distância apenas</t>
+  </si>
+  <si>
+    <t>Flecha Envenenada</t>
+  </si>
+  <si>
+    <t>Conjuração de Cometas</t>
+  </si>
+  <si>
+    <t>Guerreiro Fênix</t>
+  </si>
+  <si>
+    <t>[$tagcard:tier$][&lt;&gt;]6#Tropas de todos os níveis, exceto T6</t>
+  </si>
+  <si>
+    <t>Inexorável</t>
+  </si>
+  <si>
+    <t>Chama Obsidiana</t>
+  </si>
+  <si>
+    <t>进入战斗后,每秒损失0.5%生命值。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Após entrar na batalha, perde 0,5% de Vida por segundo.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Fonte de Magia</t>
+  </si>
+  <si>
+    <t>[$tagcard:statu=race_人类%][&gt;]0#Apenas humanos</t>
+  </si>
+  <si>
+    <t>Poder dos Fracos</t>
+  </si>
+  <si>
+    <t>对抗阶级高于自身的单位时,每阶额外造成35%的独立伤检攻击。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Ao lutar contra uma unidade inimiga de um nível superior, aumenta o dano causado em 35% para cada diferença de nível.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Raivoso</t>
+  </si>
+  <si>
+    <t>Frenético</t>
+  </si>
+  <si>
+    <t>Foco Total</t>
+  </si>
+  <si>
+    <t>Mestre do Sangramento</t>
+  </si>
+  <si>
+    <t>Mestre da Queima</t>
+  </si>
+  <si>
+    <t>Lâmina Sangrenta</t>
+  </si>
+  <si>
+    <t>[%tagcard:attack_type%][&lt;&gt;]900&amp;[%tagcard:attack_type%][&lt;&gt;]5#Unidades de todos os tipos de ataque, exceto Arcana e Cerco</t>
+  </si>
+  <si>
+    <t>Vim</t>
+  </si>
+  <si>
+    <t>Reviver</t>
+  </si>
+  <si>
+    <t>获得相当于阶级*2+等级的每秒回复生命。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Ativa um efeito de Regeneração de Vida de (Nível x 2 + Nível) por segundo.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Resistente</t>
+  </si>
+  <si>
+    <t>Protegido</t>
+  </si>
+  <si>
+    <t>[$tagcard:tier$][&lt;=]5&amp;[$tagcard:lv$][&gt;=]20#Tropas de nível inferior a T6 e pelo menos nível 20</t>
+  </si>
+  <si>
+    <t>Couraça de Ferro</t>
+  </si>
+  <si>
+    <t>[%tagcard:armor_type%][=]0#Apenas unidades de Armadura Leve</t>
+  </si>
+  <si>
+    <t>护甲类型变成「中甲」
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Altera o tipo de armadura para Armadura Média.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Flexível</t>
+  </si>
+  <si>
+    <t>Reforçado</t>
+  </si>
+  <si>
+    <t>[%tagcard:armor_type%][=]1#Apenas unidades de Armadura Média</t>
+  </si>
+  <si>
+    <t>护甲类型变成「重甲」
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Altera o tipo de armadura para Armadura Pesada.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Emagrecer</t>
+  </si>
+  <si>
+    <t>护甲类型变成「轻甲」
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Altera o tipo de armadura para Armadura Leve.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Armadura Encantada</t>
+  </si>
+  <si>
+    <t>物理伤害减免10%
+巫术伤害减免10%
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Aumenta a Redução de Dano Físico em 10% e a Redução de Dano Mágico em 10%.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Reparação Automática</t>
+  </si>
+  <si>
+    <t>Fundição de Meteorito</t>
+  </si>
+  <si>
+    <t>[%tagcard:armor_type%][=]2#Apenas unidades de Armadura Pesada</t>
+  </si>
+  <si>
+    <t>Casulo Adaptativo</t>
+  </si>
+  <si>
+    <t>[%tagcard:armor_type%][&lt;&gt;]2&amp;[%tagcard:armor_type%][&lt;&gt;]4&amp;[%tagcard:armor_type%][&lt;&gt;]9#Unidades de todos os tipos de armadura, exceto Armadura Pesada, Cavalaria Pesada e Fortificada</t>
+  </si>
+  <si>
+    <t>受到攻击时,获得持续5秒的50%伤害减免。(10秒冷却)
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Ganha 50% de Redução de Dano por 5 segundos ao ser atacado. Tempo de recarga: 10 segundos.
+Abra o menu Equipe para usar</t>
+  </si>
+  <si>
+    <t>Pele Escamosa</t>
+  </si>
+  <si>
+    <t>Dispositivo de Regeneração</t>
+  </si>
+  <si>
+    <t>释放技能后，恢复5%最大生命值
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Use para curar 5% da Vida Máxima.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Inchar</t>
+  </si>
+  <si>
+    <t>[$tagcard:tier$][&lt;=]4#Tropas de nível T4 ou inferior</t>
+  </si>
+  <si>
+    <t>Armadura do Mago</t>
+  </si>
+  <si>
+    <t>基于自身的生命值（不包括装备加成）,提升(0.3%*技能等级*自身生命值)%的物理伤害减免效果，上限为25%。</t>
+  </si>
+  <si>
+    <t>Com base na própria Vida, aumenta a própria Resistência a Dano Físico em (0,3% x Nível da Habilidade x Vida Própria). Aumento máximo de Resistência a Dano Físico: 25%.</t>
+  </si>
+  <si>
+    <t>Proteção da Rosa Branca</t>
+  </si>
+  <si>
+    <t>[%tagcard:attack_type%][&lt;&gt;]5#Unidades de todos os tipos de ataque, exceto Cerco</t>
+  </si>
+  <si>
+    <t>Armadura Retrofit</t>
+  </si>
+  <si>
+    <t>Forro Hemostático</t>
+  </si>
+  <si>
+    <t>Caixa de Antídotos</t>
+  </si>
+  <si>
+    <t>Colete à Prova de Fogo</t>
+  </si>
+  <si>
+    <t>Montaria Pura-Sangue</t>
+  </si>
+  <si>
+    <t>[$tagcard:statu=bf_乘骑%][&gt;]0#Apenas Cavalaria</t>
+  </si>
+  <si>
+    <t>Mutação</t>
+  </si>
+  <si>
+    <t>Maravilhoso</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_雇佣剑士|[%tagcard:id%][=]新_雇佣铠甲剑士#Apenas Espadachins Mercenários e Espadachins de Armadura Mercenários</t>
+  </si>
+  <si>
+    <t>武器替换为圣剑
+技能「盾阵」替换为「圣剑斩」,向前方500码斩出一道剑气,造成相当于100%物理攻击的真实伤害。无法闪避,无法格挡,无法暴击。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Trocar arma para Excalibur.
+Substituir Formação de Escudo por Corte Excalibur, uma nova habilidade. Libere um feixe de energia de espada santificada em linha reta por 500 cúbitos na direção do alvo. Causa 100% de Ataque Físico em Dano Verdadeiro a todos os inimigos atingidos pelo ataque. Não pode ser evitado ou bloqueado.
+Abra o menu Equipe para usar</t>
+  </si>
+  <si>
+    <t>Domínio do Salto e Corte</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_雪岭大剑士|[%tagcard:id%][=]新_雪岭剑豪#Apenas Grandes Espadachins Dhib e Espadachins Dhib</t>
+  </si>
+  <si>
+    <t>Fúria</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_巨人战士|[%tagcard:id%][=]新_巨灵神#Apenas Guerreiros Gigantes e Espíritos Gigantes</t>
+  </si>
+  <si>
+    <t>裂地击回复的生命提高至200%
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Aumenta a recuperação de Vida do Terremoto para 200%.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Memória Arcana</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_雄鹰隼枪兵#Apenas Falconeiros Nasir</t>
+  </si>
+  <si>
+    <t>Ignição Elemental</t>
+  </si>
+  <si>
+    <t>[$tagcard:tier$][&gt;=]5#Tropas de nível T5 ou inferior</t>
+  </si>
+  <si>
+    <t>对处于寒霜、燃烧的敌人提高40%伤害
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Causa 40% de dano adicional a inimigos afetados por Congelamento e Queimadura.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Fantasma das Sombras</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_毒蝎影舞者#Apenas Dançarinos Sombrios Dakn</t>
+  </si>
+  <si>
+    <t>技能【暗影步】替换为【影分身】，召唤出两具等级属性与影舞者相同的影分身，影分身只拥有毒系武器和轻甲克制Ⅲ被动技能，不会使用任何主动技，存在15秒。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Substituir Passo das Sombras por Fantasma das Sombras, uma nova habilidade. Invoca dois Fantasmas das Sombras do mesmo nível que o Dançarino das Sombras. Os Fantasmas não podem usar habilidades ativas, mas têm as seguintes passivas: Arma Envenenada; Contra-Ataque de Armadura Leve. Os Fantasmas persistem por 15 segundos.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Domínio da Herbalismo</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_白蔷薇炼药学徒|[%tagcard:id%][=]新_白蔷薇炼药师#Apenas Aprendizes de Rosa Branca e Alquimistas de Rosa Branca</t>
+  </si>
+  <si>
+    <t>提前让"白蔷薇炼药学徒"或"白蔷薇炼药师"掌握炼药精通
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Concede antecipadamente a Maestria em Herbologia para Aprendizes da Rosa Branca e Alquimistas da Rosa Branca.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Domínio da Cura</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_白蔷薇治疗学徒|[%tagcard:id%][=]新_白蔷薇治疗师#Apenas Acolytes de Rosa Branca e Curandeiros de Rosa Branca</t>
+  </si>
+  <si>
+    <t>提前让"白蔷薇治疗学徒"或"白蔷薇治疗师"掌握治疗术精通
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Concede antecipadamente a Maestria em Cura para Acólitos da Rosa Branca e Curandeiros da Rosa Branca.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Caçador</t>
+  </si>
+  <si>
+    <t>Carga Total</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_野马先锋骑士#Apenas Cavaleiros Vanguard Akhal</t>
+  </si>
+  <si>
+    <t>使先锋旗帜额外让周围友军提升10%减伤
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>A Bandeira da Vanguarda aumenta a Resistência a Dano dos aliados próximos em mais 10%.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Poder da Natureza</t>
+  </si>
+  <si>
+    <t>[$tagcard:statu=troop_野兽%][&gt;]0#Apenas Bestas</t>
+  </si>
+  <si>
+    <t>造成伤害提高(12-阶级)*2
+、受到伤害降低(12-阶级)*2
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Aumenta o dano em ((12 - Nível) x 2);
+Reduz o Dano Recebido em ((12 - Nível) x 2);
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Criatura Selvagem</t>
+  </si>
+  <si>
+    <t>Brutalidade</t>
+  </si>
+  <si>
+    <t>Executor</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_火魔行刑官#Apenas Carrascos Ifrit</t>
+  </si>
+  <si>
+    <t>炎狱裁决的处决阈值从15%提升至25%
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>O limiar de Vida para a Execução Infernal aumenta de 15% para 25%.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Sequaz Cavaleiro</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_黑巫师#Apenas Feiticeiros Negros</t>
+  </si>
+  <si>
+    <t>强化【召唤黑暗骑士】，在开场就会释放，且黑暗骑士存在时间变为永久，黑暗骑士的生命值提升50%，体型变大25%且免疫控制。黑暗骑士被击倒后，会暂时消失30秒，随后就会满状态复活。
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Melhora a Chamada do Cavaleiro das Trevas. No início da batalha, use Chamada do Cavaleiro das Trevas. Aumenta a duração do Cavaleiro das Trevas convocado para infinito, aumenta sua Vida em 50%, aumenta seu tamanho em 25% e concede Imunidade a Desabilitações. Quando o Cavaleiro das Trevas é derrubado, ele desaparece por 30 segundos e depois revive com Vida total.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Guardião das Falésias</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_雪狼王|[%tagcard:id%][=]新_荒原狼王|[%tagcard:id%][=]新_魔狼王#Apenas Lobos Alfa Árticos, Lobos Alfa da Terra Baldia e Reis Canis</t>
+  </si>
+  <si>
+    <t>Máquina Antiga</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_战犬#Apenas Cães de Guerra</t>
+  </si>
+  <si>
+    <t>Alterar tipo de armadura para Armadura Média.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Senhor das Poções</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_剧毒蛇王|[%tagcard:id%][=]新_毒蝎领主|[%tagcard:id%][=]新_毒蜥之王|[%tagcard:id%][=]新_剧毒蛛母#Apenas Reis Víboras, Senhores Escorpião Tóxico, Reis Lagarto Venenosos e Rainhas Aranha Tóxicas</t>
+  </si>
+  <si>
+    <t>技能【毒源】替换为【毒素领主】，每次攻击都附带2层中毒效果,持续5秒，上限6层
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Substituir Origem do Veneno por uma nova habilidade - Senhor dos Venenos. Os ataques básicos são imbuidos com 2 níveis de Veneno. O efeito de Veneno dura 5 segundos. Acumula até 6 níveis.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_棕熊首领|[%tagcard:id%][=]新_雪怪首领|[%tagcard:id%][=]新_雪岭雪怪#Apenas Chefes Ursos Marrons, Dhib Yetis e Chefes Yeti</t>
+  </si>
+  <si>
+    <t>Aguaceiro Selvagem</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_疾风迅鹰|[%tagcard:id%][=]新_雷霆战隼#Apenas Águias Zephyr e Falcões Trovão</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_猎豹首领#Apenas Guepardos</t>
+  </si>
+  <si>
+    <t>Isolamento</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_剧毒蛛母|[%tagcard:id%][=]新_吸血蛛母#Apenas Rainhas Aranha Tóxicas e Rainhas Aranha Vampíricas</t>
+  </si>
+  <si>
+    <t>Antepassado</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_冰霜蛙人精英|[%tagcard:id%][=]新_黄金蛙人精英|[%tagcard:id%][=]新_鱼人战士长|[%tagcard:id%][=]新_鱼人大巫师#Apenas Sapos Anfíbios de Elite, Sapos Dourados de Elite, Capitães Bahar e Grandes Feiticeiros Bahar</t>
+  </si>
+  <si>
+    <t>Fim</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_诅咒女妖|[%tagcard:id%][=]新_剧毒女妖|[%tagcard:id%][=]新_恐惧女妖#Apenas Banshees Amaldiçoadas, Banshees Venenosas e Banshees do Terror</t>
+  </si>
+  <si>
+    <t>Sheikh</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_沙漠战争领主#Apenas Senhores da Guerra do Deserto</t>
+  </si>
+  <si>
+    <t>Retrofit do Dispositivo</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_赫炎动力机兵#Apenas Tropas de Choque das Brasas</t>
+  </si>
+  <si>
+    <t>【动力装置】冷却下降至10秒同时不再会晕眩自己
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Dispositivo de Movimento: Reduz o tempo de recarga para 10 segundos e não mais fica atordoado ao ser ativado.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_赫炎烈焰军团#Apenas Tempestades de Fogo das Brasas</t>
+  </si>
+  <si>
+    <t>普攻喷火变成喷冰焰，除了附带燃烧效果外，还将额外附带1层寒霜
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>As chamas dos ataques básicos são convertidas em gelo, afetando os alvos com Queimadura e 1 nível de Gelo.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Lança Gigante</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_雇佣铠甲枪兵|[%tagcard:id%][=]新_雇佣枪兵#Apenas Piqueiros de Armadura Mercenários e Piqueiros Mercenários</t>
+  </si>
+  <si>
+    <t>攻击距离提升300，每次攻击命中会小幅度击退目标
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Aumenta o Alcance de Ataque em 300 cúbitos. Todos os ataques empurram ligeiramente os alvos.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Arma de Máquina Antiga</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_雇佣铠甲弩手|[%tagcard:id%][=]新_雇佣弩手#Apenas Besteiros de Armadura Mercenários e Besteiros Mercenários</t>
+  </si>
+  <si>
+    <t>将连弩替换为古代机械枪，每发造成100%物理伤害，同时附带小幅度击退效果
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Substituir bestas por Armas Antigas de Machina. Os ataques causam 100% de dano Físico e empurram ligeiramente os alvos.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Armas de Mithril</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_雪山游猎者#Apenas Caçadores Alpinos</t>
+  </si>
+  <si>
+    <t>普通攻击和技能造成真实伤害
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Ataques básicos e habilidades causam Dano Verdadeiro.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Fé Imperecível</t>
+  </si>
+  <si>
+    <t>[%tagcard:id%][=]新_光煜尊者#Apenas Abades Radiantes</t>
+  </si>
+  <si>
+    <t>每秒恢复5%最大生命值
+每5次攻击附带10%当前生命值的真实伤害
+可在队伍处置界面中使用</t>
+  </si>
+  <si>
+    <t>Recupere 5% da Vida Máxima a cada segundo.
+A cada 5º ataque, causa dano Verdadeiro adicional de 10% da Vida atual.
+Abra o menu Equipe para usar.</t>
+  </si>
+  <si>
+    <t>Joia de Teste</t>
+  </si>
+  <si>
+    <t>Esta joia é apenas para referência.
+Textos que incluem o caractere * requerem descrições a serem escritas.</t>
+  </si>
+  <si>
+    <t>Onisciente Iluminado</t>
+  </si>
+  <si>
+    <t>Torne-se onisciente e iluminado.</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1621,6 +1682,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1639,7 +1703,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1938,10 +2002,10 @@
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="F3" sqref="A1:G111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
@@ -1972,2385 +2036,2287 @@
     </row>
     <row r="2" spans="1:7" ht="78.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+        <v>285</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+        <v>288</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
+        <v>291</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="78.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
+        <v>294</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="78.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
+        <v>297</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="33.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="33.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="33.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="33.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="33.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="33.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="33.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="33.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="216" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>315</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>489</v>
+        <v>316</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" t="s">
-        <v>91</v>
+        <v>317</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="54" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="216" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="54" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="216" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>322</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>489</v>
+        <v>316</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="216" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>457</v>
+        <v>316</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="216" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>323</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>457</v>
+        <v>316</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="108" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>324</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>491</v>
+        <v>325</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" t="s">
-        <v>115</v>
+        <v>326</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="108" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>119</v>
+        <v>328</v>
       </c>
       <c r="E32" t="s">
-        <v>492</v>
+        <v>329</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" t="s">
-        <v>121</v>
+        <v>330</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="94.5" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>119</v>
+        <v>328</v>
       </c>
       <c r="E33" t="s">
-        <v>492</v>
+        <v>329</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="81" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>493</v>
+        <v>334</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="81" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>493</v>
+        <v>334</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="81" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>336</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>493</v>
+        <v>334</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="67.5" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="54" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="D38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="108" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="D39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G39" t="s">
-        <v>146</v>
+        <v>341</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="54" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="81" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>343</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>494</v>
+        <v>344</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="54" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="148.5" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" t="s">
-        <v>161</v>
+        <v>346</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="54" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="54" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="D45" s="5"/>
       <c r="F45" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="54" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D46" s="5"/>
       <c r="F46" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="54" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="F47" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="54" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="148.5" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>459</v>
+        <v>354</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="54" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="D50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="108" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>186</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="D51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51" t="s">
-        <v>188</v>
+        <v>357</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="54" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="D52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="54" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="54" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="D54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="54" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D55" s="5"/>
       <c r="F55" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="121.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="81" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>362</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>495</v>
+        <v>363</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G57" t="s">
-        <v>210</v>
+        <v>364</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="67.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>366</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>495</v>
+        <v>363</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="81" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>367</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="E59" t="s">
-        <v>496</v>
+        <v>368</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G59" t="s">
-        <v>219</v>
+        <v>369</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="81" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>371</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>496</v>
+        <v>368</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G60" t="s">
-        <v>224</v>
+        <v>372</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="108" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>374</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>496</v>
+        <v>368</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G61" t="s">
-        <v>229</v>
+        <v>375</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="67.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>496</v>
+        <v>368</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="67.5" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>378</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="189" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>380</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="E64" t="s">
-        <v>498</v>
+        <v>381</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G64" t="s">
-        <v>242</v>
+        <v>382</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="54" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="D65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="94.5" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>248</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="D66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G66" t="s">
-        <v>250</v>
+        <v>386</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="67.5" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>388</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>461</v>
+        <v>389</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="108" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>390</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>119</v>
+        <v>328</v>
       </c>
       <c r="E68" t="s">
-        <v>492</v>
+        <v>329</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>258</v>
+        <v>391</v>
       </c>
       <c r="G68" t="s">
-        <v>259</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="94.5" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>393</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="E69" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="67.5" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>395</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="54" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>269</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="54" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>272</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="D72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="54" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>275</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="D73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="81" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>399</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="E74" t="s">
-        <v>499</v>
+        <v>400</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="54" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>282</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="D75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="54" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="D76" s="5"/>
       <c r="F76" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="283.5" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G77" t="s">
-        <v>291</v>
+        <v>404</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="162" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>292</v>
+        <v>183</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>295</v>
+        <v>185</v>
       </c>
       <c r="E78" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="135" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>408</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="E79" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G79" t="s">
-        <v>301</v>
+        <v>410</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="94.5" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>303</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>305</v>
+        <v>191</v>
       </c>
       <c r="E80" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="108" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G81" t="s">
-        <v>311</v>
+        <v>416</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="297" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>314</v>
+        <v>418</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>315</v>
+        <v>197</v>
       </c>
       <c r="E82" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G82" t="s">
-        <v>317</v>
+        <v>420</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="189" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
-        <v>320</v>
+        <v>422</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>321</v>
+        <v>200</v>
       </c>
       <c r="E83" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G83" t="s">
-        <v>323</v>
+        <v>424</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="189" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s">
-        <v>326</v>
+        <v>426</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="E84" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G84" t="s">
-        <v>329</v>
+        <v>428</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="148.5" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>330</v>
+        <v>204</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>331</v>
+        <v>205</v>
       </c>
       <c r="C85" t="s">
-        <v>332</v>
+        <v>430</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="E85" t="s">
-        <v>459</v>
+        <v>354</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="108" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>333</v>
+        <v>206</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>334</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
       <c r="E86" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G86" t="s">
-        <v>338</v>
+        <v>433</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="67.5" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>339</v>
+        <v>209</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>341</v>
+        <v>435</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>461</v>
+        <v>389</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="67.5" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>342</v>
+        <v>211</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>343</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s">
-        <v>344</v>
+        <v>213</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="E88" t="s">
-        <v>461</v>
+        <v>389</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="148.5" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>345</v>
+        <v>214</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>346</v>
+        <v>215</v>
       </c>
       <c r="C89" t="s">
-        <v>347</v>
+        <v>436</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>348</v>
+        <v>216</v>
       </c>
       <c r="E89" t="s">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G89" t="s">
-        <v>350</v>
+        <v>438</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="81" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>351</v>
+        <v>217</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>352</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>348</v>
+        <v>216</v>
       </c>
       <c r="E90" t="s">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="81" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>354</v>
+        <v>219</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>348</v>
+        <v>216</v>
       </c>
       <c r="E91" t="s">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="108" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>358</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>359</v>
+        <v>442</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="E92" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="G92" t="s">
-        <v>362</v>
+        <v>444</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="337.5" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>363</v>
+        <v>224</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>364</v>
+        <v>225</v>
       </c>
       <c r="C93" t="s">
-        <v>365</v>
+        <v>446</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="E93" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="G93" t="s">
-        <v>368</v>
+        <v>448</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="202.5" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>369</v>
+        <v>227</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>370</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="E94" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="81" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="C95" t="s">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>376</v>
+        <v>232</v>
       </c>
       <c r="E95" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G95" t="s">
-        <v>210</v>
+        <v>364</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="283.5" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>377</v>
+        <v>233</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>378</v>
+        <v>234</v>
       </c>
       <c r="C96" t="s">
-        <v>379</v>
+        <v>455</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>380</v>
+        <v>235</v>
       </c>
       <c r="E96" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="G96" t="s">
-        <v>382</v>
+        <v>457</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="216" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>383</v>
+        <v>236</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>384</v>
+        <v>237</v>
       </c>
       <c r="C97" t="s">
-        <v>385</v>
+        <v>238</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>386</v>
+        <v>239</v>
       </c>
       <c r="E97" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="148.5" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>387</v>
+        <v>240</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>388</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>389</v>
+        <v>460</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>390</v>
+        <v>242</v>
       </c>
       <c r="E98" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="81" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>391</v>
+        <v>243</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>392</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
-        <v>393</v>
+        <v>245</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>394</v>
+        <v>246</v>
       </c>
       <c r="E99" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="148.5" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>395</v>
+        <v>247</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>396</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>398</v>
+        <v>249</v>
       </c>
       <c r="E100" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="324" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>399</v>
+        <v>250</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="C101" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>402</v>
+        <v>252</v>
       </c>
       <c r="E101" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="216" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>403</v>
+        <v>253</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>404</v>
+        <v>254</v>
       </c>
       <c r="C102" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>406</v>
+        <v>255</v>
       </c>
       <c r="E102" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="94.5" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>407</v>
+        <v>256</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>408</v>
+        <v>257</v>
       </c>
       <c r="C103" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>410</v>
+        <v>258</v>
       </c>
       <c r="E103" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="121.5" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>411</v>
+        <v>259</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>412</v>
+        <v>260</v>
       </c>
       <c r="C104" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>414</v>
+        <v>261</v>
       </c>
       <c r="E104" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G104" t="s">
-        <v>416</v>
+        <v>473</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="148.5" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>418</v>
+        <v>263</v>
       </c>
       <c r="C105" t="s">
-        <v>419</v>
+        <v>264</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>420</v>
+        <v>265</v>
       </c>
       <c r="E105" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="G105" t="s">
-        <v>422</v>
+        <v>476</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="162" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>423</v>
+        <v>266</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>424</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>426</v>
+        <v>268</v>
       </c>
       <c r="E106" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="G106" t="s">
-        <v>428</v>
+        <v>480</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="162" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>429</v>
+        <v>269</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="C107" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>432</v>
+        <v>271</v>
       </c>
       <c r="E107" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="G107" t="s">
-        <v>434</v>
+        <v>484</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="94.5" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>435</v>
+        <v>272</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>436</v>
+        <v>273</v>
       </c>
       <c r="C108" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>438</v>
+        <v>274</v>
       </c>
       <c r="E108" t="s">
         <v>487</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="G108" t="s">
-        <v>440</v>
+        <v>488</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="108" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>441</v>
+        <v>275</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>442</v>
+        <v>276</v>
       </c>
       <c r="C109" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>444</v>
+        <v>277</v>
       </c>
       <c r="E109" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="G109" t="s">
-        <v>446</v>
+        <v>492</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="90" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>447</v>
+        <v>278</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>448</v>
+        <v>279</v>
       </c>
       <c r="C110" t="s">
-        <v>449</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="D110" s="5"/>
       <c r="F110" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G110" t="s">
-        <v>451</v>
+        <v>280</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="27" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>452</v>
+        <v>281</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>453</v>
+        <v>282</v>
       </c>
       <c r="C111" t="s">
-        <v>454</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="D111" s="5"/>
       <c r="F111" s="5" t="s">
-        <v>455</v>
+        <v>283</v>
       </c>
       <c r="G111" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/english/D道具列表_Items_CardGems_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/D道具列表_Items_CardGems_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352BBD9F-08E3-434B-956B-6761C470BE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD3F39-DE42-45C5-8582-B24A623F3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2001,13 +2001,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F3" sqref="A1:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="224.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
